--- a/experiment/quadratic/ex9_2_5/compare/Alpha-Zero/ex9_2_5_Alpha-Zero.xlsx
+++ b/experiment/quadratic/ex9_2_5/compare/Alpha-Zero/ex9_2_5_Alpha-Zero.xlsx
@@ -479,13 +479,13 @@
         <v>3.400000000000002</v>
       </c>
       <c r="E2">
-        <v>0.01185678</v>
+        <v>0.014741895</v>
       </c>
       <c r="F2">
-        <v>0.01948923</v>
+        <v>0.022123856</v>
       </c>
       <c r="G2">
-        <v>0.01463736</v>
+        <v>0.017031251261904762</v>
       </c>
       <c r="H2">
         <v>2307</v>
@@ -514,13 +514,13 @@
         <v>3.3999998750562455</v>
       </c>
       <c r="E3">
-        <v>0.00359811</v>
+        <v>0.004064085</v>
       </c>
       <c r="F3">
-        <v>0.00953514</v>
+        <v>0.009566924</v>
       </c>
       <c r="G3">
-        <v>0.004780674396551724</v>
+        <v>0.00521551028914405</v>
       </c>
       <c r="H3">
         <v>4811</v>
